--- a/simulations/cleaned_inclusion_exclusion/Wassenaar_2017 IEC_clean/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/cleaned_inclusion_exclusion/Wassenaar_2017 IEC_clean/output/tables/metrics/metrics_sim.xlsx
@@ -713,7 +713,7 @@
         <v>36</v>
       </c>
       <c r="C3">
-        <v>0.9009009009009009</v>
+        <v>0.8828828828828829</v>
       </c>
       <c r="D3">
         <v>0.9819819819819819</v>
@@ -728,16 +728,16 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.7835159102764736</v>
+        <v>0.763432446531038</v>
       </c>
       <c r="I3">
-        <v>0.03038409588627929</v>
+        <v>0.02934454899520402</v>
       </c>
       <c r="J3">
-        <v>0.8018018018018018</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="K3">
-        <v>285.6126126126126</v>
+        <v>277.7567567567568</v>
       </c>
       <c r="L3">
         <v>11</v>
@@ -755,34 +755,34 @@
         <v>99</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R3">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="S3">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="T3">
-        <v>240</v>
+        <v>195</v>
       </c>
       <c r="U3">
-        <v>638</v>
+        <v>672</v>
       </c>
       <c r="V3">
-        <v>7551</v>
+        <v>7553</v>
       </c>
       <c r="W3">
-        <v>7538</v>
+        <v>7545</v>
       </c>
       <c r="X3">
-        <v>7514</v>
+        <v>7525</v>
       </c>
       <c r="Y3">
-        <v>7317</v>
+        <v>7362</v>
       </c>
       <c r="Z3">
-        <v>6919</v>
+        <v>6885</v>
       </c>
       <c r="AA3">
         <v>100</v>
@@ -800,19 +800,19 @@
         <v>12</v>
       </c>
       <c r="AF3">
-        <v>0.999206</v>
+        <v>0.999471</v>
       </c>
       <c r="AG3">
-        <v>0.997486</v>
+        <v>0.998412</v>
       </c>
       <c r="AH3">
-        <v>0.99431</v>
+        <v>0.995766</v>
       </c>
       <c r="AI3">
-        <v>0.968241</v>
+        <v>0.974196</v>
       </c>
       <c r="AJ3">
-        <v>0.915575</v>
+        <v>0.911076</v>
       </c>
     </row>
   </sheetData>
